--- a/rawdata/SummasrySurveyData2019_2021.xlsx
+++ b/rawdata/SummasrySurveyData2019_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamescookuniversity-my.sharepoint.com/personal/slade_allenankins_jcu_edu_au/Documents/Projects/noisyminer/rawdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F18EE603-1F6F-C74B-A3B5-F84B6E815DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E5192E-9EE4-4475-A903-C16D5958A1AC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F18EE603-1F6F-C74B-A3B5-F84B6E815DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37AB54CC-302C-42B9-A469-A0EC2A80CEB3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1428" yWindow="1428" windowWidth="7392" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="-13620" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryData" sheetId="1" r:id="rId1"/>
@@ -3868,6 +3868,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3891,10 +3895,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3909,18 +3909,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F45C1422-7AF0-4F3F-BF2E-F51D2838555C}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F45C1422-7AF0-4F3F-BF2E-F51D2838555C}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:I1048576" xr:uid="{F45C1422-7AF0-4F3F-BF2E-F51D2838555C}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Y6"/>
+        <filter val="BN5"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{291AF9D4-482A-417B-8700-F43FC0589046}" name="SurveyID"/>
     <tableColumn id="2" xr3:uid="{7E1A6851-C6D8-4BD0-AC06-534EB50032B4}" name="SiteID"/>
-    <tableColumn id="3" xr3:uid="{ED345651-D814-4855-9853-BA079B2CD1E2}" name="Date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{ED345651-D814-4855-9853-BA079B2CD1E2}" name="Date" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{70160324-1FFA-4C49-A328-B7EBFEF82DB6}" name="Repeat"/>
     <tableColumn id="5" xr3:uid="{6A56E099-E1A7-4F68-9DB6-D5423BFF0DB2}" name="Total20m"/>
     <tableColumn id="6" xr3:uid="{7AE4F1E2-F065-4E11-911C-2943F855A810}" name="Total40m"/>
@@ -4214,7 +4214,7 @@
   <dimension ref="A1:K1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C714" sqref="C714"/>
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -4402,7 +4402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>125</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>227</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>239</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>263</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>13</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>277</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>333</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>349</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>410</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>457</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>464</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>512</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>526</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>547</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>575</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>589</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>622</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>689</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>710</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>728</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>775</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>851</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>856</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>901</v>
       </c>
@@ -26297,7 +26297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>913</v>
       </c>
@@ -27631,7 +27631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
         <v>966</v>
       </c>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="2" t="s">
         <v>996</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
         <v>1003</v>
       </c>
@@ -30125,7 +30125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2" t="s">
         <v>1053</v>
       </c>
@@ -30473,7 +30473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2" t="s">
         <v>1065</v>
       </c>
@@ -31082,7 +31082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A927" s="2" t="s">
         <v>1086</v>
       </c>
@@ -31749,7 +31749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" s="2" t="s">
         <v>1110</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" s="2" t="s">
         <v>1117</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" s="2" t="s">
         <v>1166</v>
       </c>
@@ -33315,7 +33315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1004" s="2" t="s">
         <v>1172</v>
       </c>
@@ -34243,7 +34243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1036" s="2" t="s">
         <v>1207</v>
       </c>
@@ -34417,7 +34417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1042" s="2" t="s">
         <v>1214</v>
       </c>
@@ -34591,7 +34591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1048" s="2" t="s">
         <v>1220</v>
       </c>

--- a/rawdata/SummasrySurveyData2019_2021.xlsx
+++ b/rawdata/SummasrySurveyData2019_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamescookuniversity-my.sharepoint.com/personal/slade_allenankins_jcu_edu_au/Documents/Projects/noisyminer/rawdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F18EE603-1F6F-C74B-A3B5-F84B6E815DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37AB54CC-302C-42B9-A469-A0EC2A80CEB3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{F18EE603-1F6F-C74B-A3B5-F84B6E815DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65188DFB-A67E-4085-A711-B2CDCFFCA8E2}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="-13620" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3910,13 +3910,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F45C1422-7AF0-4F3F-BF2E-F51D2838555C}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:I1048576" xr:uid="{F45C1422-7AF0-4F3F-BF2E-F51D2838555C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BN5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I1048576" xr:uid="{F45C1422-7AF0-4F3F-BF2E-F51D2838555C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{291AF9D4-482A-417B-8700-F43FC0589046}" name="SurveyID"/>
     <tableColumn id="2" xr3:uid="{7E1A6851-C6D8-4BD0-AC06-534EB50032B4}" name="SiteID"/>
@@ -4213,11 +4207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="C980" sqref="C980"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" style="6"/>
@@ -4257,7 +4251,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4315,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4344,7 +4338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4373,7 +4367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4431,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4460,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4489,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -4518,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4547,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4576,7 +4570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4605,7 +4599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -4692,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -4721,7 +4715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -4779,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -4808,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -4866,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -4895,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -4924,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -4953,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -4982,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -5011,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -5040,7 +5034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -5069,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -5098,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -5127,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -5156,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -5185,7 +5179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -5214,7 +5208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -5243,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -5272,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -5301,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -5330,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -5359,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -5388,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -5417,7 +5411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -5446,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -5475,7 +5469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -5504,7 +5498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -5533,7 +5527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
@@ -5562,7 +5556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
@@ -5591,7 +5585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
@@ -5620,7 +5614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -5649,7 +5643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -5678,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
@@ -5707,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -5736,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
@@ -5765,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
@@ -5794,7 +5788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -5852,7 +5846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -5881,7 +5875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -5910,7 +5904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
@@ -5939,7 +5933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -5968,7 +5962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
@@ -5997,7 +5991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>109</v>
       </c>
@@ -6026,7 +6020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
@@ -6055,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>111</v>
       </c>
@@ -6084,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>114</v>
       </c>
@@ -6113,7 +6107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -6142,7 +6136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -6171,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>120</v>
       </c>
@@ -6200,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>122</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>123</v>
       </c>
@@ -6258,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -6316,7 +6310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>126</v>
       </c>
@@ -6345,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>127</v>
       </c>
@@ -6374,7 +6368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>128</v>
       </c>
@@ -6403,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>129</v>
       </c>
@@ -6432,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>130</v>
       </c>
@@ -6461,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>131</v>
       </c>
@@ -6490,7 +6484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>133</v>
       </c>
@@ -6519,7 +6513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>134</v>
       </c>
@@ -6548,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>135</v>
       </c>
@@ -6577,7 +6571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>136</v>
       </c>
@@ -6606,7 +6600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>137</v>
       </c>
@@ -6635,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>138</v>
       </c>
@@ -6664,7 +6658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>140</v>
       </c>
@@ -6693,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>141</v>
       </c>
@@ -6722,7 +6716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
@@ -6751,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>143</v>
       </c>
@@ -6780,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>145</v>
       </c>
@@ -6809,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>146</v>
       </c>
@@ -6838,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>147</v>
       </c>
@@ -6867,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>148</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>149</v>
       </c>
@@ -6925,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>150</v>
       </c>
@@ -6954,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -6983,7 +6977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>153</v>
       </c>
@@ -7012,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>154</v>
       </c>
@@ -7041,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>155</v>
       </c>
@@ -7070,7 +7064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>157</v>
       </c>
@@ -7099,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>158</v>
       </c>
@@ -7128,7 +7122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>159</v>
       </c>
@@ -7157,7 +7151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>160</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>163</v>
       </c>
@@ -7215,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>165</v>
       </c>
@@ -7244,7 +7238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>167</v>
       </c>
@@ -7273,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>169</v>
       </c>
@@ -7302,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>171</v>
       </c>
@@ -7331,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>173</v>
       </c>
@@ -7360,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>175</v>
       </c>
@@ -7389,7 +7383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>177</v>
       </c>
@@ -7418,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>179</v>
       </c>
@@ -7447,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>181</v>
       </c>
@@ -7476,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>183</v>
       </c>
@@ -7505,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>184</v>
       </c>
@@ -7534,7 +7528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>185</v>
       </c>
@@ -7563,7 +7557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>186</v>
       </c>
@@ -7592,7 +7586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>187</v>
       </c>
@@ -7621,7 +7615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>188</v>
       </c>
@@ -7650,7 +7644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>189</v>
       </c>
@@ -7679,7 +7673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>190</v>
       </c>
@@ -7708,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>192</v>
       </c>
@@ -7737,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>193</v>
       </c>
@@ -7766,7 +7760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>194</v>
       </c>
@@ -7795,7 +7789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>195</v>
       </c>
@@ -7824,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>197</v>
       </c>
@@ -7853,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>198</v>
       </c>
@@ -7882,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>199</v>
       </c>
@@ -7911,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>200</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>201</v>
       </c>
@@ -7969,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>190</v>
       </c>
@@ -7998,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>203</v>
       </c>
@@ -8027,7 +8021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>204</v>
       </c>
@@ -8056,7 +8050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>205</v>
       </c>
@@ -8085,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>206</v>
       </c>
@@ -8114,7 +8108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>207</v>
       </c>
@@ -8143,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>208</v>
       </c>
@@ -8172,7 +8166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>209</v>
       </c>
@@ -8201,7 +8195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>210</v>
       </c>
@@ -8230,7 +8224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>211</v>
       </c>
@@ -8259,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>212</v>
       </c>
@@ -8288,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>213</v>
       </c>
@@ -8317,7 +8311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>200</v>
       </c>
@@ -8346,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>214</v>
       </c>
@@ -8375,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>215</v>
       </c>
@@ -8404,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>217</v>
       </c>
@@ -8433,7 +8427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -8462,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>219</v>
       </c>
@@ -8491,7 +8485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>220</v>
       </c>
@@ -8520,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>221</v>
       </c>
@@ -8549,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>222</v>
       </c>
@@ -8578,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>224</v>
       </c>
@@ -8607,7 +8601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>225</v>
       </c>
@@ -8636,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>226</v>
       </c>
@@ -8694,7 +8688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>228</v>
       </c>
@@ -8723,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>229</v>
       </c>
@@ -8752,7 +8746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>230</v>
       </c>
@@ -8781,7 +8775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>231</v>
       </c>
@@ -8810,7 +8804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>232</v>
       </c>
@@ -8839,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>233</v>
       </c>
@@ -8868,7 +8862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>234</v>
       </c>
@@ -8897,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>236</v>
       </c>
@@ -8926,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>237</v>
       </c>
@@ -8955,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>238</v>
       </c>
@@ -9013,7 +9007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>240</v>
       </c>
@@ -9042,7 +9036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>241</v>
       </c>
@@ -9071,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>242</v>
       </c>
@@ -9100,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>243</v>
       </c>
@@ -9129,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>244</v>
       </c>
@@ -9158,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>245</v>
       </c>
@@ -9187,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>246</v>
       </c>
@@ -9216,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>247</v>
       </c>
@@ -9245,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>248</v>
       </c>
@@ -9274,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>249</v>
       </c>
@@ -9303,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>250</v>
       </c>
@@ -9332,7 +9326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>251</v>
       </c>
@@ -9361,7 +9355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>253</v>
       </c>
@@ -9390,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>254</v>
       </c>
@@ -9419,7 +9413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>255</v>
       </c>
@@ -9448,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>256</v>
       </c>
@@ -9477,7 +9471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>257</v>
       </c>
@@ -9506,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>258</v>
       </c>
@@ -9535,7 +9529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>260</v>
       </c>
@@ -9564,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>261</v>
       </c>
@@ -9593,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>262</v>
       </c>
@@ -9651,7 +9645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>264</v>
       </c>
@@ -9680,7 +9674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>13</v>
       </c>
@@ -9709,7 +9703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>266</v>
       </c>
@@ -9738,7 +9732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>268</v>
       </c>
@@ -9767,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>269</v>
       </c>
@@ -9796,7 +9790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>270</v>
       </c>
@@ -9825,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>271</v>
       </c>
@@ -9854,7 +9848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>273</v>
       </c>
@@ -9883,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>274</v>
       </c>
@@ -9912,7 +9906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>275</v>
       </c>
@@ -9941,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>276</v>
       </c>
@@ -9970,7 +9964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>277</v>
       </c>
@@ -9999,7 +9993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>278</v>
       </c>
@@ -10028,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>280</v>
       </c>
@@ -10057,7 +10051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>281</v>
       </c>
@@ -10086,7 +10080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>283</v>
       </c>
@@ -10115,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>284</v>
       </c>
@@ -10144,7 +10138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>285</v>
       </c>
@@ -10173,7 +10167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>286</v>
       </c>
@@ -10202,7 +10196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>287</v>
       </c>
@@ -10231,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>288</v>
       </c>
@@ -10260,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>290</v>
       </c>
@@ -10289,7 +10283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>291</v>
       </c>
@@ -10318,7 +10312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>292</v>
       </c>
@@ -10347,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>293</v>
       </c>
@@ -10376,7 +10370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>294</v>
       </c>
@@ -10405,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>295</v>
       </c>
@@ -10434,7 +10428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>296</v>
       </c>
@@ -10463,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>297</v>
       </c>
@@ -10492,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>298</v>
       </c>
@@ -10521,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>299</v>
       </c>
@@ -10550,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>300</v>
       </c>
@@ -10579,7 +10573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>301</v>
       </c>
@@ -10608,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>302</v>
       </c>
@@ -10637,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>303</v>
       </c>
@@ -10666,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>305</v>
       </c>
@@ -10695,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>306</v>
       </c>
@@ -10724,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>307</v>
       </c>
@@ -10753,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>308</v>
       </c>
@@ -10782,7 +10776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>309</v>
       </c>
@@ -10811,7 +10805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>310</v>
       </c>
@@ -10840,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>311</v>
       </c>
@@ -10869,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>312</v>
       </c>
@@ -10898,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>313</v>
       </c>
@@ -10927,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>314</v>
       </c>
@@ -10956,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>315</v>
       </c>
@@ -10985,7 +10979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>316</v>
       </c>
@@ -11014,7 +11008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>317</v>
       </c>
@@ -11043,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>318</v>
       </c>
@@ -11072,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>319</v>
       </c>
@@ -11101,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>321</v>
       </c>
@@ -11130,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>322</v>
       </c>
@@ -11159,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>323</v>
       </c>
@@ -11188,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>324</v>
       </c>
@@ -11217,7 +11211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>326</v>
       </c>
@@ -11246,7 +11240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>327</v>
       </c>
@@ -11275,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>329</v>
       </c>
@@ -11304,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>330</v>
       </c>
@@ -11333,7 +11327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>332</v>
       </c>
@@ -11362,7 +11356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>333</v>
       </c>
@@ -11391,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>334</v>
       </c>
@@ -11420,7 +11414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>336</v>
       </c>
@@ -11449,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>337</v>
       </c>
@@ -11478,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>338</v>
       </c>
@@ -11507,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>339</v>
       </c>
@@ -11536,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>340</v>
       </c>
@@ -11565,7 +11559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>341</v>
       </c>
@@ -11594,7 +11588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>343</v>
       </c>
@@ -11623,7 +11617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>344</v>
       </c>
@@ -11652,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>346</v>
       </c>
@@ -11681,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>347</v>
       </c>
@@ -11710,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>348</v>
       </c>
@@ -11768,7 +11762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>350</v>
       </c>
@@ -11797,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>351</v>
       </c>
@@ -11826,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>352</v>
       </c>
@@ -11855,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>353</v>
       </c>
@@ -11884,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>354</v>
       </c>
@@ -11913,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>355</v>
       </c>
@@ -11942,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>357</v>
       </c>
@@ -11971,7 +11965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>358</v>
       </c>
@@ -12000,7 +11994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>359</v>
       </c>
@@ -12029,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>360</v>
       </c>
@@ -12058,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>361</v>
       </c>
@@ -12087,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>362</v>
       </c>
@@ -12116,7 +12110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>363</v>
       </c>
@@ -12145,7 +12139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>364</v>
       </c>
@@ -12174,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>365</v>
       </c>
@@ -12203,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>366</v>
       </c>
@@ -12232,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>367</v>
       </c>
@@ -12261,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>368</v>
       </c>
@@ -12290,7 +12284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>369</v>
       </c>
@@ -12319,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>370</v>
       </c>
@@ -12348,7 +12342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>372</v>
       </c>
@@ -12377,7 +12371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>373</v>
       </c>
@@ -12406,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>374</v>
       </c>
@@ -12435,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>375</v>
       </c>
@@ -12464,7 +12458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>376</v>
       </c>
@@ -12493,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>377</v>
       </c>
@@ -12522,7 +12516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>380</v>
       </c>
@@ -12551,7 +12545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>381</v>
       </c>
@@ -12580,7 +12574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>382</v>
       </c>
@@ -12609,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>383</v>
       </c>
@@ -12638,7 +12632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>384</v>
       </c>
@@ -12667,7 +12661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>385</v>
       </c>
@@ -12696,7 +12690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>386</v>
       </c>
@@ -12725,7 +12719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>387</v>
       </c>
@@ -12754,7 +12748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>388</v>
       </c>
@@ -12783,7 +12777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>389</v>
       </c>
@@ -12812,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>391</v>
       </c>
@@ -12841,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>392</v>
       </c>
@@ -12870,7 +12864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>393</v>
       </c>
@@ -12899,7 +12893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>394</v>
       </c>
@@ -12928,7 +12922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>396</v>
       </c>
@@ -12957,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>397</v>
       </c>
@@ -12986,7 +12980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>398</v>
       </c>
@@ -13015,7 +13009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>399</v>
       </c>
@@ -13044,7 +13038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>400</v>
       </c>
@@ -13073,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>401</v>
       </c>
@@ -13102,7 +13096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>402</v>
       </c>
@@ -13131,7 +13125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>403</v>
       </c>
@@ -13160,7 +13154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>404</v>
       </c>
@@ -13189,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>405</v>
       </c>
@@ -13218,7 +13212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>406</v>
       </c>
@@ -13247,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>407</v>
       </c>
@@ -13276,7 +13270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>408</v>
       </c>
@@ -13305,7 +13299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>409</v>
       </c>
@@ -13334,7 +13328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>410</v>
       </c>
@@ -13363,7 +13357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>411</v>
       </c>
@@ -13392,7 +13386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>413</v>
       </c>
@@ -13421,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>414</v>
       </c>
@@ -13450,7 +13444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>415</v>
       </c>
@@ -13479,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>416</v>
       </c>
@@ -13508,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>417</v>
       </c>
@@ -13537,7 +13531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>418</v>
       </c>
@@ -13566,7 +13560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>420</v>
       </c>
@@ -13595,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>421</v>
       </c>
@@ -13624,7 +13618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>422</v>
       </c>
@@ -13653,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>423</v>
       </c>
@@ -13682,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>425</v>
       </c>
@@ -13711,7 +13705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>426</v>
       </c>
@@ -13740,7 +13734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>427</v>
       </c>
@@ -13769,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>428</v>
       </c>
@@ -13798,7 +13792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>430</v>
       </c>
@@ -13827,7 +13821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>431</v>
       </c>
@@ -13856,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>432</v>
       </c>
@@ -13885,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>433</v>
       </c>
@@ -13914,7 +13908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>434</v>
       </c>
@@ -13943,7 +13937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>435</v>
       </c>
@@ -13972,7 +13966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>436</v>
       </c>
@@ -14001,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>437</v>
       </c>
@@ -14030,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>438</v>
       </c>
@@ -14059,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>439</v>
       </c>
@@ -14088,7 +14082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>440</v>
       </c>
@@ -14117,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>441</v>
       </c>
@@ -14146,7 +14140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>442</v>
       </c>
@@ -14175,7 +14169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>443</v>
       </c>
@@ -14204,7 +14198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>444</v>
       </c>
@@ -14233,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>445</v>
       </c>
@@ -14262,7 +14256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>446</v>
       </c>
@@ -14291,7 +14285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>447</v>
       </c>
@@ -14320,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>448</v>
       </c>
@@ -14349,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>449</v>
       </c>
@@ -14378,7 +14372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>450</v>
       </c>
@@ -14407,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>451</v>
       </c>
@@ -14436,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>452</v>
       </c>
@@ -14465,7 +14459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>453</v>
       </c>
@@ -14494,7 +14488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>454</v>
       </c>
@@ -14523,7 +14517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>455</v>
       </c>
@@ -14552,7 +14546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>456</v>
       </c>
@@ -14610,7 +14604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>458</v>
       </c>
@@ -14639,7 +14633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>459</v>
       </c>
@@ -14668,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>460</v>
       </c>
@@ -14697,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>461</v>
       </c>
@@ -14726,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>462</v>
       </c>
@@ -14755,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>463</v>
       </c>
@@ -14784,7 +14778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>464</v>
       </c>
@@ -14813,7 +14807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>465</v>
       </c>
@@ -14842,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>466</v>
       </c>
@@ -14871,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>467</v>
       </c>
@@ -14900,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>468</v>
       </c>
@@ -14929,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>469</v>
       </c>
@@ -14958,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>470</v>
       </c>
@@ -14987,7 +14981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>471</v>
       </c>
@@ -15016,7 +15010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>472</v>
       </c>
@@ -15045,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>473</v>
       </c>
@@ -15074,7 +15068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>474</v>
       </c>
@@ -15103,7 +15097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>475</v>
       </c>
@@ -15132,7 +15126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>476</v>
       </c>
@@ -15161,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>477</v>
       </c>
@@ -15190,7 +15184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>478</v>
       </c>
@@ -15219,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>479</v>
       </c>
@@ -15248,7 +15242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>480</v>
       </c>
@@ -15277,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>481</v>
       </c>
@@ -15306,7 +15300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>482</v>
       </c>
@@ -15335,7 +15329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>483</v>
       </c>
@@ -15364,7 +15358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>484</v>
       </c>
@@ -15393,7 +15387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>485</v>
       </c>
@@ -15422,7 +15416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>486</v>
       </c>
@@ -15451,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>487</v>
       </c>
@@ -15480,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>488</v>
       </c>
@@ -15509,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>489</v>
       </c>
@@ -15538,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>490</v>
       </c>
@@ -15567,7 +15561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>491</v>
       </c>
@@ -15596,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>492</v>
       </c>
@@ -15625,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>493</v>
       </c>
@@ -15654,7 +15648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>494</v>
       </c>
@@ -15683,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>495</v>
       </c>
@@ -15712,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>496</v>
       </c>
@@ -15741,7 +15735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>497</v>
       </c>
@@ -15770,7 +15764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>498</v>
       </c>
@@ -15799,7 +15793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>499</v>
       </c>
@@ -15828,7 +15822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>500</v>
       </c>
@@ -15857,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>501</v>
       </c>
@@ -15886,7 +15880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>502</v>
       </c>
@@ -15915,7 +15909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>503</v>
       </c>
@@ -15944,7 +15938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>504</v>
       </c>
@@ -15973,7 +15967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>505</v>
       </c>
@@ -16002,7 +15996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>506</v>
       </c>
@@ -16031,7 +16025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>507</v>
       </c>
@@ -16060,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>508</v>
       </c>
@@ -16089,7 +16083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>509</v>
       </c>
@@ -16118,7 +16112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>510</v>
       </c>
@@ -16147,7 +16141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>511</v>
       </c>
@@ -16176,7 +16170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>512</v>
       </c>
@@ -16205,7 +16199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>513</v>
       </c>
@@ -16234,7 +16228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>514</v>
       </c>
@@ -16263,7 +16257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>515</v>
       </c>
@@ -16292,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>516</v>
       </c>
@@ -16321,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>517</v>
       </c>
@@ -16350,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>518</v>
       </c>
@@ -16379,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>519</v>
       </c>
@@ -16408,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>520</v>
       </c>
@@ -16437,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>521</v>
       </c>
@@ -16466,7 +16460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>522</v>
       </c>
@@ -16495,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>523</v>
       </c>
@@ -16524,7 +16518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>524</v>
       </c>
@@ -16553,7 +16547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>525</v>
       </c>
@@ -16582,7 +16576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>526</v>
       </c>
@@ -16611,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>527</v>
       </c>
@@ -16640,7 +16634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>528</v>
       </c>
@@ -16669,7 +16663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>529</v>
       </c>
@@ -16698,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>530</v>
       </c>
@@ -16727,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>531</v>
       </c>
@@ -16756,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>532</v>
       </c>
@@ -16785,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>533</v>
       </c>
@@ -16814,7 +16808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>534</v>
       </c>
@@ -16843,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>535</v>
       </c>
@@ -16872,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>536</v>
       </c>
@@ -16901,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>537</v>
       </c>
@@ -16930,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>538</v>
       </c>
@@ -16959,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>539</v>
       </c>
@@ -16988,7 +16982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>540</v>
       </c>
@@ -17017,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>541</v>
       </c>
@@ -17046,7 +17040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>542</v>
       </c>
@@ -17075,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>543</v>
       </c>
@@ -17104,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>544</v>
       </c>
@@ -17133,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>545</v>
       </c>
@@ -17162,7 +17156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>546</v>
       </c>
@@ -17220,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>548</v>
       </c>
@@ -17249,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>549</v>
       </c>
@@ -17278,7 +17272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>550</v>
       </c>
@@ -17307,7 +17301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>551</v>
       </c>
@@ -17336,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>552</v>
       </c>
@@ -17365,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>553</v>
       </c>
@@ -17394,7 +17388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>554</v>
       </c>
@@ -17423,7 +17417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>555</v>
       </c>
@@ -17452,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>556</v>
       </c>
@@ -17481,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>557</v>
       </c>
@@ -17510,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>558</v>
       </c>
@@ -17539,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>559</v>
       </c>
@@ -17568,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>560</v>
       </c>
@@ -17597,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>561</v>
       </c>
@@ -17626,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>562</v>
       </c>
@@ -17655,7 +17649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>563</v>
       </c>
@@ -17684,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>564</v>
       </c>
@@ -17713,7 +17707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>565</v>
       </c>
@@ -17742,7 +17736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>567</v>
       </c>
@@ -17771,7 +17765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>568</v>
       </c>
@@ -17800,7 +17794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>569</v>
       </c>
@@ -17829,7 +17823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>570</v>
       </c>
@@ -17858,7 +17852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>572</v>
       </c>
@@ -17887,7 +17881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>573</v>
       </c>
@@ -17916,7 +17910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>574</v>
       </c>
@@ -17974,7 +17968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>576</v>
       </c>
@@ -18003,7 +17997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>577</v>
       </c>
@@ -18032,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>579</v>
       </c>
@@ -18061,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>580</v>
       </c>
@@ -18090,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>581</v>
       </c>
@@ -18119,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>582</v>
       </c>
@@ -18148,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>583</v>
       </c>
@@ -18177,7 +18171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>584</v>
       </c>
@@ -18206,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>586</v>
       </c>
@@ -18235,7 +18229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>587</v>
       </c>
@@ -18264,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>588</v>
       </c>
@@ -18322,7 +18316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>590</v>
       </c>
@@ -18351,7 +18345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>591</v>
       </c>
@@ -18380,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>592</v>
       </c>
@@ -18409,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>593</v>
       </c>
@@ -18438,7 +18432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>594</v>
       </c>
@@ -18467,7 +18461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>595</v>
       </c>
@@ -18496,7 +18490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>597</v>
       </c>
@@ -18525,7 +18519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>598</v>
       </c>
@@ -18554,7 +18548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>599</v>
       </c>
@@ -18583,7 +18577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>600</v>
       </c>
@@ -18612,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>602</v>
       </c>
@@ -18641,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>603</v>
       </c>
@@ -18670,7 +18664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>605</v>
       </c>
@@ -18699,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>606</v>
       </c>
@@ -18728,7 +18722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>607</v>
       </c>
@@ -18757,7 +18751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>608</v>
       </c>
@@ -18786,7 +18780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>609</v>
       </c>
@@ -18815,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>610</v>
       </c>
@@ -18844,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>611</v>
       </c>
@@ -18873,7 +18867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>612</v>
       </c>
@@ -18902,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>613</v>
       </c>
@@ -18931,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>614</v>
       </c>
@@ -18960,7 +18954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>616</v>
       </c>
@@ -18989,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>617</v>
       </c>
@@ -19018,7 +19012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>618</v>
       </c>
@@ -19047,7 +19041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>619</v>
       </c>
@@ -19076,7 +19070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>620</v>
       </c>
@@ -19105,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>621</v>
       </c>
@@ -19134,7 +19128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>622</v>
       </c>
@@ -19163,7 +19157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>623</v>
       </c>
@@ -19192,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>625</v>
       </c>
@@ -19221,7 +19215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>626</v>
       </c>
@@ -19250,7 +19244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>627</v>
       </c>
@@ -19279,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>628</v>
       </c>
@@ -19308,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>629</v>
       </c>
@@ -19337,7 +19331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>630</v>
       </c>
@@ -19366,7 +19360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>631</v>
       </c>
@@ -19395,7 +19389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>632</v>
       </c>
@@ -19424,7 +19418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>633</v>
       </c>
@@ -19453,7 +19447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>634</v>
       </c>
@@ -19482,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>636</v>
       </c>
@@ -19511,7 +19505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>637</v>
       </c>
@@ -19540,7 +19534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>638</v>
       </c>
@@ -19569,7 +19563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>639</v>
       </c>
@@ -19598,7 +19592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>641</v>
       </c>
@@ -19627,7 +19621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>642</v>
       </c>
@@ -19656,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>643</v>
       </c>
@@ -19685,7 +19679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>644</v>
       </c>
@@ -19714,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>645</v>
       </c>
@@ -19743,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>646</v>
       </c>
@@ -19772,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>647</v>
       </c>
@@ -19801,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>648</v>
       </c>
@@ -19830,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>650</v>
       </c>
@@ -19859,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>651</v>
       </c>
@@ -19888,7 +19882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>652</v>
       </c>
@@ -19917,7 +19911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>653</v>
       </c>
@@ -19946,7 +19940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>655</v>
       </c>
@@ -19975,7 +19969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>656</v>
       </c>
@@ -20004,7 +19998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>657</v>
       </c>
@@ -20033,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>658</v>
       </c>
@@ -20062,7 +20056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>659</v>
       </c>
@@ -20091,7 +20085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>661</v>
       </c>
@@ -20120,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>662</v>
       </c>
@@ -20149,7 +20143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>663</v>
       </c>
@@ -20178,7 +20172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>664</v>
       </c>
@@ -20207,7 +20201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>665</v>
       </c>
@@ -20236,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>666</v>
       </c>
@@ -20265,7 +20259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>667</v>
       </c>
@@ -20294,7 +20288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>668</v>
       </c>
@@ -20323,7 +20317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>669</v>
       </c>
@@ -20352,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>670</v>
       </c>
@@ -20381,7 +20375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>672</v>
       </c>
@@ -20410,7 +20404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>673</v>
       </c>
@@ -20439,7 +20433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>675</v>
       </c>
@@ -20468,7 +20462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>676</v>
       </c>
@@ -20497,7 +20491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>677</v>
       </c>
@@ -20526,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>678</v>
       </c>
@@ -20555,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>679</v>
       </c>
@@ -20584,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>680</v>
       </c>
@@ -20613,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>681</v>
       </c>
@@ -20642,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>682</v>
       </c>
@@ -20671,7 +20665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>683</v>
       </c>
@@ -20700,7 +20694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>684</v>
       </c>
@@ -20729,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>686</v>
       </c>
@@ -20758,7 +20752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>687</v>
       </c>
@@ -20787,7 +20781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>688</v>
       </c>
@@ -20845,7 +20839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>690</v>
       </c>
@@ -20874,7 +20868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>691</v>
       </c>
@@ -20903,7 +20897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>692</v>
       </c>
@@ -20932,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>693</v>
       </c>
@@ -20961,7 +20955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>694</v>
       </c>
@@ -20990,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>695</v>
       </c>
@@ -21019,7 +21013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>697</v>
       </c>
@@ -21048,7 +21042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>698</v>
       </c>
@@ -21077,7 +21071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>699</v>
       </c>
@@ -21106,7 +21100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>700</v>
       </c>
@@ -21135,7 +21129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>701</v>
       </c>
@@ -21164,7 +21158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>702</v>
       </c>
@@ -21193,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>703</v>
       </c>
@@ -21222,7 +21216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>704</v>
       </c>
@@ -21251,7 +21245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>706</v>
       </c>
@@ -21280,7 +21274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>707</v>
       </c>
@@ -21309,7 +21303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>708</v>
       </c>
@@ -21338,7 +21332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>709</v>
       </c>
@@ -21367,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>710</v>
       </c>
@@ -21396,7 +21390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>711</v>
       </c>
@@ -21425,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>713</v>
       </c>
@@ -21454,7 +21448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>714</v>
       </c>
@@ -21483,7 +21477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>715</v>
       </c>
@@ -21512,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>716</v>
       </c>
@@ -21541,7 +21535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>717</v>
       </c>
@@ -21570,7 +21564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>718</v>
       </c>
@@ -21599,7 +21593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>721</v>
       </c>
@@ -21628,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>722</v>
       </c>
@@ -21657,7 +21651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>723</v>
       </c>
@@ -21686,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>724</v>
       </c>
@@ -21715,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>725</v>
       </c>
@@ -21744,7 +21738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>726</v>
       </c>
@@ -21773,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>727</v>
       </c>
@@ -21831,7 +21825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>729</v>
       </c>
@@ -21860,7 +21854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>730</v>
       </c>
@@ -21889,7 +21883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>732</v>
       </c>
@@ -21918,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>733</v>
       </c>
@@ -21947,7 +21941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>734</v>
       </c>
@@ -21976,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>735</v>
       </c>
@@ -22005,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>736</v>
       </c>
@@ -22034,7 +22028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>737</v>
       </c>
@@ -22063,7 +22057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>739</v>
       </c>
@@ -22092,7 +22086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>740</v>
       </c>
@@ -22121,7 +22115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>741</v>
       </c>
@@ -22150,7 +22144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>742</v>
       </c>
@@ -22179,7 +22173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>743</v>
       </c>
@@ -22208,7 +22202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>744</v>
       </c>
@@ -22237,7 +22231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>745</v>
       </c>
@@ -22266,7 +22260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>747</v>
       </c>
@@ -22295,7 +22289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>748</v>
       </c>
@@ -22324,7 +22318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>749</v>
       </c>
@@ -22353,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>750</v>
       </c>
@@ -22382,7 +22376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>752</v>
       </c>
@@ -22411,7 +22405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>753</v>
       </c>
@@ -22440,7 +22434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>754</v>
       </c>
@@ -22469,7 +22463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>756</v>
       </c>
@@ -22498,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>757</v>
       </c>
@@ -22527,7 +22521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>758</v>
       </c>
@@ -22556,7 +22550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>759</v>
       </c>
@@ -22585,7 +22579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>761</v>
       </c>
@@ -22614,7 +22608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>762</v>
       </c>
@@ -22643,7 +22637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>764</v>
       </c>
@@ -22672,7 +22666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>765</v>
       </c>
@@ -22701,7 +22695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>766</v>
       </c>
@@ -22730,7 +22724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>767</v>
       </c>
@@ -22759,7 +22753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>768</v>
       </c>
@@ -22788,7 +22782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>769</v>
       </c>
@@ -22817,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>770</v>
       </c>
@@ -22846,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>771</v>
       </c>
@@ -22875,7 +22869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>773</v>
       </c>
@@ -22904,7 +22898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>774</v>
       </c>
@@ -22933,7 +22927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>775</v>
       </c>
@@ -22962,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>776</v>
       </c>
@@ -22991,7 +22985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>778</v>
       </c>
@@ -23020,7 +23014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>779</v>
       </c>
@@ -23049,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>780</v>
       </c>
@@ -23078,7 +23072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>781</v>
       </c>
@@ -23107,7 +23101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>782</v>
       </c>
@@ -23136,7 +23130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>783</v>
       </c>
@@ -23165,7 +23159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>785</v>
       </c>
@@ -23194,7 +23188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>786</v>
       </c>
@@ -23223,7 +23217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>788</v>
       </c>
@@ -23252,7 +23246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>789</v>
       </c>
@@ -23281,7 +23275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>790</v>
       </c>
@@ -23310,7 +23304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>791</v>
       </c>
@@ -23339,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>793</v>
       </c>
@@ -23368,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>794</v>
       </c>
@@ -23397,7 +23391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>795</v>
       </c>
@@ -23426,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>796</v>
       </c>
@@ -23455,7 +23449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>797</v>
       </c>
@@ -23484,7 +23478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>798</v>
       </c>
@@ -23513,7 +23507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>800</v>
       </c>
@@ -23542,7 +23536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>801</v>
       </c>
@@ -23571,7 +23565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>802</v>
       </c>
@@ -23600,7 +23594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>803</v>
       </c>
@@ -23629,7 +23623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>805</v>
       </c>
@@ -23658,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>806</v>
       </c>
@@ -23687,7 +23681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>807</v>
       </c>
@@ -23716,7 +23710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>808</v>
       </c>
@@ -23745,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>810</v>
       </c>
@@ -23774,7 +23768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>811</v>
       </c>
@@ -23803,7 +23797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>812</v>
       </c>
@@ -23832,7 +23826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>813</v>
       </c>
@@ -23861,7 +23855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>815</v>
       </c>
@@ -23890,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>816</v>
       </c>
@@ -23919,7 +23913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>817</v>
       </c>
@@ -23948,7 +23942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>818</v>
       </c>
@@ -23977,7 +23971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>819</v>
       </c>
@@ -24006,7 +24000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>820</v>
       </c>
@@ -24035,7 +24029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>821</v>
       </c>
@@ -24064,7 +24058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>822</v>
       </c>
@@ -24093,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>823</v>
       </c>
@@ -24122,7 +24116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>824</v>
       </c>
@@ -24151,7 +24145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>826</v>
       </c>
@@ -24180,7 +24174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>827</v>
       </c>
@@ -24209,7 +24203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>828</v>
       </c>
@@ -24238,7 +24232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>829</v>
       </c>
@@ -24267,7 +24261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>831</v>
       </c>
@@ -24296,7 +24290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>832</v>
       </c>
@@ -24325,7 +24319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>833</v>
       </c>
@@ -24354,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>834</v>
       </c>
@@ -24383,7 +24377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>836</v>
       </c>
@@ -24412,7 +24406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>837</v>
       </c>
@@ -24441,7 +24435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>838</v>
       </c>
@@ -24470,7 +24464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>839</v>
       </c>
@@ -24499,7 +24493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>841</v>
       </c>
@@ -24528,7 +24522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>842</v>
       </c>
@@ -24557,7 +24551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>843</v>
       </c>
@@ -24586,7 +24580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>844</v>
       </c>
@@ -24615,7 +24609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>845</v>
       </c>
@@ -24644,7 +24638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>846</v>
       </c>
@@ -24673,7 +24667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>848</v>
       </c>
@@ -24702,7 +24696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>849</v>
       </c>
@@ -24731,7 +24725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>850</v>
       </c>
@@ -24789,7 +24783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>852</v>
       </c>
@@ -24818,7 +24812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>853</v>
       </c>
@@ -24847,7 +24841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>854</v>
       </c>
@@ -24876,7 +24870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>855</v>
       </c>
@@ -24905,7 +24899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>856</v>
       </c>
@@ -24934,7 +24928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>857</v>
       </c>
@@ -24963,7 +24957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>859</v>
       </c>
@@ -24992,7 +24986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>860</v>
       </c>
@@ -25021,7 +25015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>862</v>
       </c>
@@ -25050,7 +25044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>863</v>
       </c>
@@ -25079,7 +25073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>864</v>
       </c>
@@ -25108,7 +25102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>865</v>
       </c>
@@ -25137,7 +25131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>867</v>
       </c>
@@ -25166,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>868</v>
       </c>
@@ -25195,7 +25189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>869</v>
       </c>
@@ -25224,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>870</v>
       </c>
@@ -25253,7 +25247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>871</v>
       </c>
@@ -25282,7 +25276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>872</v>
       </c>
@@ -25311,7 +25305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>874</v>
       </c>
@@ -25340,7 +25334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>875</v>
       </c>
@@ -25369,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>876</v>
       </c>
@@ -25398,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>877</v>
       </c>
@@ -25427,7 +25421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>879</v>
       </c>
@@ -25456,7 +25450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>880</v>
       </c>
@@ -25485,7 +25479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>882</v>
       </c>
@@ -25514,7 +25508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>883</v>
       </c>
@@ -25543,7 +25537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>884</v>
       </c>
@@ -25572,7 +25566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>885</v>
       </c>
@@ -25601,7 +25595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>886</v>
       </c>
@@ -25630,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>887</v>
       </c>
@@ -25659,7 +25653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>888</v>
       </c>
@@ -25688,7 +25682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>889</v>
       </c>
@@ -25717,7 +25711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>890</v>
       </c>
@@ -25746,7 +25740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>891</v>
       </c>
@@ -25775,7 +25769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>893</v>
       </c>
@@ -25804,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>894</v>
       </c>
@@ -25833,7 +25827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>895</v>
       </c>
@@ -25862,7 +25856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>896</v>
       </c>
@@ -25891,7 +25885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>898</v>
       </c>
@@ -25920,7 +25914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>899</v>
       </c>
@@ -25949,7 +25943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>900</v>
       </c>
@@ -26007,7 +26001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>902</v>
       </c>
@@ -26036,7 +26030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
         <v>903</v>
       </c>
@@ -26065,7 +26059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
         <v>904</v>
       </c>
@@ -26094,7 +26088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
         <v>905</v>
       </c>
@@ -26123,7 +26117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
         <v>906</v>
       </c>
@@ -26152,7 +26146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
         <v>907</v>
       </c>
@@ -26181,7 +26175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
         <v>909</v>
       </c>
@@ -26210,7 +26204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
         <v>910</v>
       </c>
@@ -26239,7 +26233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
         <v>911</v>
       </c>
@@ -26268,7 +26262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
         <v>912</v>
       </c>
@@ -26297,7 +26291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>913</v>
       </c>
@@ -26326,7 +26320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>914</v>
       </c>
@@ -26355,7 +26349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
         <v>916</v>
       </c>
@@ -26384,7 +26378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
         <v>917</v>
       </c>
@@ -26413,7 +26407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
         <v>918</v>
       </c>
@@ -26442,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
         <v>919</v>
       </c>
@@ -26471,7 +26465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
         <v>920</v>
       </c>
@@ -26500,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
         <v>921</v>
       </c>
@@ -26529,7 +26523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
         <v>923</v>
       </c>
@@ -26558,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
         <v>924</v>
       </c>
@@ -26587,7 +26581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
         <v>926</v>
       </c>
@@ -26616,7 +26610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
         <v>927</v>
       </c>
@@ -26645,7 +26639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
         <v>928</v>
       </c>
@@ -26674,7 +26668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
         <v>929</v>
       </c>
@@ -26703,7 +26697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
         <v>930</v>
       </c>
@@ -26732,7 +26726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
         <v>931</v>
       </c>
@@ -26761,7 +26755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
         <v>932</v>
       </c>
@@ -26790,7 +26784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
         <v>933</v>
       </c>
@@ -26819,7 +26813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
         <v>934</v>
       </c>
@@ -26848,7 +26842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
         <v>935</v>
       </c>
@@ -26877,7 +26871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
         <v>937</v>
       </c>
@@ -26906,7 +26900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
         <v>938</v>
       </c>
@@ -26935,7 +26929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
         <v>939</v>
       </c>
@@ -26964,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
         <v>940</v>
       </c>
@@ -26993,7 +26987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
         <v>941</v>
       </c>
@@ -27022,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
         <v>942</v>
       </c>
@@ -27051,7 +27045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
         <v>943</v>
       </c>
@@ -27080,7 +27074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
         <v>944</v>
       </c>
@@ -27109,7 +27103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
         <v>945</v>
       </c>
@@ -27138,7 +27132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="2" t="s">
         <v>946</v>
       </c>
@@ -27167,7 +27161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
         <v>947</v>
       </c>
@@ -27196,7 +27190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
         <v>949</v>
       </c>
@@ -27225,7 +27219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
         <v>950</v>
       </c>
@@ -27254,7 +27248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
         <v>951</v>
       </c>
@@ -27283,7 +27277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
         <v>952</v>
       </c>
@@ -27312,7 +27306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
         <v>954</v>
       </c>
@@ -27341,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
         <v>955</v>
       </c>
@@ -27370,7 +27364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
         <v>956</v>
       </c>
@@ -27399,7 +27393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="2" t="s">
         <v>957</v>
       </c>
@@ -27428,7 +27422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
         <v>958</v>
       </c>
@@ -27457,7 +27451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
         <v>959</v>
       </c>
@@ -27486,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="2" t="s">
         <v>960</v>
       </c>
@@ -27515,7 +27509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="2" t="s">
         <v>961</v>
       </c>
@@ -27544,7 +27538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
         <v>962</v>
       </c>
@@ -27573,7 +27567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
         <v>963</v>
       </c>
@@ -27602,7 +27596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
         <v>965</v>
       </c>
@@ -27631,7 +27625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
         <v>966</v>
       </c>
@@ -27660,7 +27654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="2" t="s">
         <v>967</v>
       </c>
@@ -27689,7 +27683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
         <v>969</v>
       </c>
@@ -27718,7 +27712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="2" t="s">
         <v>970</v>
       </c>
@@ -27747,7 +27741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
         <v>971</v>
       </c>
@@ -27776,7 +27770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="2" t="s">
         <v>972</v>
       </c>
@@ -27805,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
         <v>973</v>
       </c>
@@ -27834,7 +27828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
         <v>974</v>
       </c>
@@ -27863,7 +27857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
         <v>975</v>
       </c>
@@ -27892,7 +27886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
         <v>976</v>
       </c>
@@ -27921,7 +27915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
         <v>977</v>
       </c>
@@ -27950,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="2" t="s">
         <v>978</v>
       </c>
@@ -27979,7 +27973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="2" t="s">
         <v>979</v>
       </c>
@@ -28008,7 +28002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="2" t="s">
         <v>980</v>
       </c>
@@ -28037,7 +28031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="2" t="s">
         <v>981</v>
       </c>
@@ -28066,7 +28060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="2" t="s">
         <v>982</v>
       </c>
@@ -28095,7 +28089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="2" t="s">
         <v>983</v>
       </c>
@@ -28124,7 +28118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="2" t="s">
         <v>984</v>
       </c>
@@ -28153,7 +28147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
         <v>985</v>
       </c>
@@ -28182,7 +28176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="2" t="s">
         <v>986</v>
       </c>
@@ -28211,7 +28205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
         <v>987</v>
       </c>
@@ -28240,7 +28234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
         <v>988</v>
       </c>
@@ -28269,7 +28263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="830" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
         <v>989</v>
       </c>
@@ -28298,7 +28292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="2" t="s">
         <v>990</v>
       </c>
@@ -28327,7 +28321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
         <v>991</v>
       </c>
@@ -28356,7 +28350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
         <v>992</v>
       </c>
@@ -28385,7 +28379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
         <v>993</v>
       </c>
@@ -28414,7 +28408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
         <v>994</v>
       </c>
@@ -28443,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
         <v>995</v>
       </c>
@@ -28501,7 +28495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
         <v>997</v>
       </c>
@@ -28530,7 +28524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="2" t="s">
         <v>998</v>
       </c>
@@ -28559,7 +28553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
         <v>999</v>
       </c>
@@ -28588,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
         <v>1000</v>
       </c>
@@ -28617,7 +28611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
         <v>1001</v>
       </c>
@@ -28646,7 +28640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A843" s="2" t="s">
         <v>1002</v>
       </c>
@@ -28675,7 +28669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
         <v>1003</v>
       </c>
@@ -28704,7 +28698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A845" s="2" t="s">
         <v>1004</v>
       </c>
@@ -28733,7 +28727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
         <v>1005</v>
       </c>
@@ -28762,7 +28756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
         <v>1006</v>
       </c>
@@ -28791,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
         <v>1007</v>
       </c>
@@ -28820,7 +28814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
         <v>1008</v>
       </c>
@@ -28849,7 +28843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
         <v>1009</v>
       </c>
@@ -28878,7 +28872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
         <v>1010</v>
       </c>
@@ -28907,7 +28901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="852" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
         <v>1011</v>
       </c>
@@ -28936,7 +28930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="853" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
         <v>1012</v>
       </c>
@@ -28965,7 +28959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="854" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
         <v>1013</v>
       </c>
@@ -28994,7 +28988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="855" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
         <v>1014</v>
       </c>
@@ -29023,7 +29017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
         <v>1015</v>
       </c>
@@ -29052,7 +29046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
         <v>1016</v>
       </c>
@@ -29081,7 +29075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="858" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
         <v>1017</v>
       </c>
@@ -29110,7 +29104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="859" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
         <v>1018</v>
       </c>
@@ -29139,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
         <v>1019</v>
       </c>
@@ -29168,7 +29162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
         <v>1020</v>
       </c>
@@ -29197,7 +29191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
         <v>1021</v>
       </c>
@@ -29226,7 +29220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="863" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A863" s="2" t="s">
         <v>1022</v>
       </c>
@@ -29255,7 +29249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="864" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
         <v>1023</v>
       </c>
@@ -29284,7 +29278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A865" s="2" t="s">
         <v>1024</v>
       </c>
@@ -29313,7 +29307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
         <v>1025</v>
       </c>
@@ -29342,7 +29336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
         <v>1026</v>
       </c>
@@ -29371,7 +29365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
         <v>1027</v>
       </c>
@@ -29400,7 +29394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A869" s="2" t="s">
         <v>1028</v>
       </c>
@@ -29429,7 +29423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
         <v>1029</v>
       </c>
@@ -29458,7 +29452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
         <v>1030</v>
       </c>
@@ -29487,7 +29481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
         <v>1031</v>
       </c>
@@ -29516,7 +29510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A873" s="2" t="s">
         <v>1032</v>
       </c>
@@ -29545,7 +29539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
         <v>1033</v>
       </c>
@@ -29574,7 +29568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A875" s="2" t="s">
         <v>1034</v>
       </c>
@@ -29603,7 +29597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
         <v>1035</v>
       </c>
@@ -29632,7 +29626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A877" s="2" t="s">
         <v>1036</v>
       </c>
@@ -29661,7 +29655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="878" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878" s="2" t="s">
         <v>1037</v>
       </c>
@@ -29690,7 +29684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="879" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A879" s="2" t="s">
         <v>1038</v>
       </c>
@@ -29719,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A880" s="2" t="s">
         <v>1039</v>
       </c>
@@ -29748,7 +29742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881" s="2" t="s">
         <v>1040</v>
       </c>
@@ -29777,7 +29771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882" s="2" t="s">
         <v>1041</v>
       </c>
@@ -29806,7 +29800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883" s="2" t="s">
         <v>1042</v>
       </c>
@@ -29835,7 +29829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884" s="2" t="s">
         <v>1043</v>
       </c>
@@ -29864,7 +29858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" s="2" t="s">
         <v>1044</v>
       </c>
@@ -29893,7 +29887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="886" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886" s="2" t="s">
         <v>1045</v>
       </c>
@@ -29922,7 +29916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="887" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887" s="2" t="s">
         <v>1046</v>
       </c>
@@ -29951,7 +29945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="888" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888" s="2" t="s">
         <v>1047</v>
       </c>
@@ -29980,7 +29974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889" s="2" t="s">
         <v>1048</v>
       </c>
@@ -30009,7 +30003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890" s="2" t="s">
         <v>1049</v>
       </c>
@@ -30038,7 +30032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891" s="2" t="s">
         <v>1050</v>
       </c>
@@ -30067,7 +30061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892" s="2" t="s">
         <v>1051</v>
       </c>
@@ -30096,7 +30090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893" s="2" t="s">
         <v>1052</v>
       </c>
@@ -30125,7 +30119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894" s="2" t="s">
         <v>1053</v>
       </c>
@@ -30154,7 +30148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A895" s="2" t="s">
         <v>1054</v>
       </c>
@@ -30183,7 +30177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A896" s="2" t="s">
         <v>1055</v>
       </c>
@@ -30212,7 +30206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A897" s="2" t="s">
         <v>1056</v>
       </c>
@@ -30241,7 +30235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A898" s="2" t="s">
         <v>1057</v>
       </c>
@@ -30270,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A899" s="2" t="s">
         <v>1058</v>
       </c>
@@ -30299,7 +30293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A900" s="2" t="s">
         <v>1059</v>
       </c>
@@ -30328,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A901" s="2" t="s">
         <v>1060</v>
       </c>
@@ -30357,7 +30351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A902" s="2" t="s">
         <v>1061</v>
       </c>
@@ -30386,7 +30380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A903" s="2" t="s">
         <v>1062</v>
       </c>
@@ -30415,7 +30409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904" s="2" t="s">
         <v>1063</v>
       </c>
@@ -30444,7 +30438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="905" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A905" s="2" t="s">
         <v>1064</v>
       </c>
@@ -30473,7 +30467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A906" s="2" t="s">
         <v>1065</v>
       </c>
@@ -30502,7 +30496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A907" s="2" t="s">
         <v>1066</v>
       </c>
@@ -30531,7 +30525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="908" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A908" s="2" t="s">
         <v>1067</v>
       </c>
@@ -30560,7 +30554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A909" s="2" t="s">
         <v>1068</v>
       </c>
@@ -30589,7 +30583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A910" s="2" t="s">
         <v>1069</v>
       </c>
@@ -30618,7 +30612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A911" s="2" t="s">
         <v>1070</v>
       </c>
@@ -30647,7 +30641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A912" s="2" t="s">
         <v>1071</v>
       </c>
@@ -30676,7 +30670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A913" s="2" t="s">
         <v>1072</v>
       </c>
@@ -30705,7 +30699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A914" s="2" t="s">
         <v>1073</v>
       </c>
@@ -30734,7 +30728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A915" s="2" t="s">
         <v>1074</v>
       </c>
@@ -30763,7 +30757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A916" s="2" t="s">
         <v>1075</v>
       </c>
@@ -30792,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A917" s="2" t="s">
         <v>1076</v>
       </c>
@@ -30821,7 +30815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918" s="2" t="s">
         <v>1077</v>
       </c>
@@ -30850,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A919" s="2" t="s">
         <v>1078</v>
       </c>
@@ -30879,7 +30873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A920" s="2" t="s">
         <v>1079</v>
       </c>
@@ -30908,7 +30902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" s="2" t="s">
         <v>1080</v>
       </c>
@@ -30937,7 +30931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A922" s="2" t="s">
         <v>1081</v>
       </c>
@@ -30966,7 +30960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A923" s="2" t="s">
         <v>1082</v>
       </c>
@@ -30995,7 +30989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924" s="2" t="s">
         <v>1083</v>
       </c>
@@ -31024,7 +31018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A925" s="2" t="s">
         <v>1084</v>
       </c>
@@ -31053,7 +31047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A926" s="2" t="s">
         <v>1085</v>
       </c>
@@ -31111,7 +31105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A928" s="2" t="s">
         <v>1087</v>
       </c>
@@ -31140,7 +31134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A929" s="2" t="s">
         <v>1088</v>
       </c>
@@ -31169,7 +31163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A930" s="2" t="s">
         <v>1089</v>
       </c>
@@ -31198,7 +31192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A931" s="2" t="s">
         <v>1090</v>
       </c>
@@ -31227,7 +31221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A932" s="2" t="s">
         <v>1091</v>
       </c>
@@ -31256,7 +31250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A933" s="2" t="s">
         <v>1092</v>
       </c>
@@ -31285,7 +31279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A934" s="2" t="s">
         <v>1093</v>
       </c>
@@ -31314,7 +31308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A935" s="2" t="s">
         <v>1094</v>
       </c>
@@ -31343,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A936" s="2" t="s">
         <v>1095</v>
       </c>
@@ -31372,7 +31366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A937" s="2" t="s">
         <v>1096</v>
       </c>
@@ -31401,7 +31395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A938" s="2" t="s">
         <v>1097</v>
       </c>
@@ -31430,7 +31424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A939" s="2" t="s">
         <v>1098</v>
       </c>
@@ -31459,7 +31453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A940" s="2" t="s">
         <v>1099</v>
       </c>
@@ -31488,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A941" s="2" t="s">
         <v>1100</v>
       </c>
@@ -31517,7 +31511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A942" s="2" t="s">
         <v>1101</v>
       </c>
@@ -31546,7 +31540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A943" s="2" t="s">
         <v>1102</v>
       </c>
@@ -31575,7 +31569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A944" s="2" t="s">
         <v>1103</v>
       </c>
@@ -31604,7 +31598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="945" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945" s="2" t="s">
         <v>1104</v>
       </c>
@@ -31633,7 +31627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="946" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A946" s="2" t="s">
         <v>1106</v>
       </c>
@@ -31662,7 +31656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="947" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A947" s="2" t="s">
         <v>1107</v>
       </c>
@@ -31691,7 +31685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A948" s="2" t="s">
         <v>1108</v>
       </c>
@@ -31720,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A949" s="2" t="s">
         <v>1109</v>
       </c>
@@ -31749,7 +31743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="950" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A950" s="2" t="s">
         <v>1110</v>
       </c>
@@ -31778,7 +31772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="951" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A951" s="2" t="s">
         <v>1111</v>
       </c>
@@ -31807,7 +31801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="952" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A952" s="2" t="s">
         <v>1113</v>
       </c>
@@ -31836,7 +31830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="953" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A953" s="2" t="s">
         <v>1114</v>
       </c>
@@ -31865,7 +31859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="954" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A954" s="2" t="s">
         <v>1115</v>
       </c>
@@ -31894,7 +31888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A955" s="2" t="s">
         <v>1116</v>
       </c>
@@ -31923,7 +31917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A956" s="2" t="s">
         <v>1117</v>
       </c>
@@ -31952,7 +31946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A957" s="2" t="s">
         <v>1118</v>
       </c>
@@ -31981,7 +31975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="958" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958" s="2" t="s">
         <v>1120</v>
       </c>
@@ -32010,7 +32004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="959" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A959" s="2" t="s">
         <v>1121</v>
       </c>
@@ -32039,7 +32033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="960" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A960" s="2" t="s">
         <v>1122</v>
       </c>
@@ -32068,7 +32062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="961" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A961" s="2" t="s">
         <v>1123</v>
       </c>
@@ -32097,7 +32091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A962" s="2" t="s">
         <v>1124</v>
       </c>
@@ -32126,7 +32120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A963" s="2" t="s">
         <v>1126</v>
       </c>
@@ -32155,7 +32149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A964" s="2" t="s">
         <v>1127</v>
       </c>
@@ -32184,7 +32178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="965" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A965" s="2" t="s">
         <v>1128</v>
       </c>
@@ -32213,7 +32207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="966" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A966" s="2" t="s">
         <v>1129</v>
       </c>
@@ -32242,7 +32236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="967" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A967" s="2" t="s">
         <v>1131</v>
       </c>
@@ -32271,7 +32265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A968" s="2" t="s">
         <v>1132</v>
       </c>
@@ -32300,7 +32294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969" s="2" t="s">
         <v>1133</v>
       </c>
@@ -32329,7 +32323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970" s="2" t="s">
         <v>1134</v>
       </c>
@@ -32358,7 +32352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A971" s="2" t="s">
         <v>1135</v>
       </c>
@@ -32387,7 +32381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A972" s="2" t="s">
         <v>1136</v>
       </c>
@@ -32416,7 +32410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A973" s="2" t="s">
         <v>1138</v>
       </c>
@@ -32445,7 +32439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A974" s="2" t="s">
         <v>1139</v>
       </c>
@@ -32474,7 +32468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A975" s="2" t="s">
         <v>1140</v>
       </c>
@@ -32503,7 +32497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A976" s="2" t="s">
         <v>1141</v>
       </c>
@@ -32532,7 +32526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A977" s="2" t="s">
         <v>1142</v>
       </c>
@@ -32561,7 +32555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="978" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A978" s="2" t="s">
         <v>1143</v>
       </c>
@@ -32590,7 +32584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="979" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979" s="2" t="s">
         <v>1145</v>
       </c>
@@ -32619,7 +32613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="980" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980" s="2" t="s">
         <v>1146</v>
       </c>
@@ -32648,7 +32642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A981" s="2" t="s">
         <v>1147</v>
       </c>
@@ -32677,7 +32671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="982" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A982" s="2" t="s">
         <v>1148</v>
       </c>
@@ -32706,7 +32700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A983" s="2" t="s">
         <v>1149</v>
       </c>
@@ -32735,7 +32729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A984" s="2" t="s">
         <v>1150</v>
       </c>
@@ -32764,7 +32758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="985" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985" s="2" t="s">
         <v>1152</v>
       </c>
@@ -32793,7 +32787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A986" s="2" t="s">
         <v>1153</v>
       </c>
@@ -32822,7 +32816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="987" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987" s="2" t="s">
         <v>1154</v>
       </c>
@@ -32851,7 +32845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A988" s="2" t="s">
         <v>1155</v>
       </c>
@@ -32880,7 +32874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A989" s="2" t="s">
         <v>1156</v>
       </c>
@@ -32909,7 +32903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990" s="2" t="s">
         <v>1157</v>
       </c>
@@ -32938,7 +32932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="991" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A991" s="2" t="s">
         <v>1158</v>
       </c>
@@ -32967,7 +32961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="992" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A992" s="2" t="s">
         <v>1159</v>
       </c>
@@ -32996,7 +32990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A993" s="2" t="s">
         <v>1160</v>
       </c>
@@ -33025,7 +33019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A994" s="2" t="s">
         <v>1161</v>
       </c>
@@ -33054,7 +33048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="995" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A995" s="2" t="s">
         <v>1162</v>
       </c>
@@ -33083,7 +33077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="996" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A996" s="2" t="s">
         <v>1163</v>
       </c>
@@ -33112,7 +33106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="997" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A997" s="2" t="s">
         <v>1164</v>
       </c>
@@ -33141,7 +33135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="998" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A998" s="2" t="s">
         <v>1165</v>
       </c>
@@ -33170,7 +33164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A999" s="2" t="s">
         <v>1166</v>
       </c>
@@ -33199,7 +33193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1000" s="2" t="s">
         <v>1167</v>
       </c>
@@ -33228,7 +33222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1001" s="2" t="s">
         <v>1169</v>
       </c>
@@ -33257,7 +33251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1002" s="2" t="s">
         <v>1170</v>
       </c>
@@ -33286,7 +33280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1003" s="2" t="s">
         <v>1171</v>
       </c>
@@ -33344,7 +33338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1005" s="2" t="s">
         <v>1173</v>
       </c>
@@ -33373,7 +33367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1006" s="2" t="s">
         <v>1174</v>
       </c>
@@ -33402,7 +33396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1007" s="2" t="s">
         <v>1175</v>
       </c>
@@ -33431,7 +33425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1008" s="2" t="s">
         <v>1176</v>
       </c>
@@ -33460,7 +33454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1009" s="2" t="s">
         <v>1177</v>
       </c>
@@ -33489,7 +33483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1010" s="2" t="s">
         <v>1178</v>
       </c>
@@ -33518,7 +33512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1011" s="2" t="s">
         <v>1179</v>
       </c>
@@ -33547,7 +33541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1012" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1012" s="2" t="s">
         <v>1180</v>
       </c>
@@ -33576,7 +33570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1013" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1013" s="2" t="s">
         <v>1182</v>
       </c>
@@ -33605,7 +33599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1014" s="2" t="s">
         <v>1183</v>
       </c>
@@ -33634,7 +33628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1015" s="2" t="s">
         <v>1184</v>
       </c>
@@ -33663,7 +33657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1016" s="2" t="s">
         <v>1185</v>
       </c>
@@ -33692,7 +33686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1017" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1017" s="2" t="s">
         <v>1186</v>
       </c>
@@ -33721,7 +33715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1018" s="2" t="s">
         <v>1187</v>
       </c>
@@ -33750,7 +33744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1019" s="2" t="s">
         <v>1188</v>
       </c>
@@ -33779,7 +33773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1020" s="2" t="s">
         <v>1189</v>
       </c>
@@ -33808,7 +33802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1021" s="2" t="s">
         <v>1190</v>
       </c>
@@ -33837,7 +33831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1022" s="2" t="s">
         <v>1191</v>
       </c>
@@ -33866,7 +33860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1023" s="2" t="s">
         <v>1192</v>
       </c>
@@ -33895,7 +33889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1024" s="2" t="s">
         <v>1193</v>
       </c>
@@ -33924,7 +33918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1025" s="2" t="s">
         <v>1194</v>
       </c>
@@ -33953,7 +33947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1026" s="2" t="s">
         <v>1195</v>
       </c>
@@ -33982,7 +33976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1027" s="2" t="s">
         <v>1196</v>
       </c>
@@ -34011,7 +34005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1028" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1028" s="2" t="s">
         <v>1197</v>
       </c>
@@ -34040,7 +34034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1029" s="2" t="s">
         <v>1199</v>
       </c>
@@ -34069,7 +34063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1030" s="2" t="s">
         <v>1200</v>
       </c>
@@ -34098,7 +34092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1031" s="2" t="s">
         <v>1201</v>
       </c>
@@ -34127,7 +34121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1032" s="2" t="s">
         <v>1202</v>
       </c>
@@ -34156,7 +34150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1033" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1033" s="2" t="s">
         <v>1204</v>
       </c>
@@ -34185,7 +34179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1034" s="2" t="s">
         <v>1205</v>
       </c>
@@ -34214,7 +34208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1035" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1035" s="2" t="s">
         <v>1206</v>
       </c>
@@ -34272,7 +34266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1037" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1037" s="2" t="s">
         <v>1208</v>
       </c>
@@ -34301,7 +34295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1038" s="2" t="s">
         <v>1209</v>
       </c>
@@ -34330,7 +34324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1039" s="2" t="s">
         <v>1211</v>
       </c>
@@ -34359,7 +34353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1040" s="2" t="s">
         <v>1212</v>
       </c>
@@ -34388,7 +34382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1041" s="2" t="s">
         <v>1213</v>
       </c>
@@ -34446,7 +34440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1043" s="2" t="s">
         <v>1215</v>
       </c>
@@ -34475,7 +34469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1044" s="2" t="s">
         <v>1216</v>
       </c>
@@ -34504,7 +34498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1045" s="2" t="s">
         <v>1217</v>
       </c>
@@ -34533,7 +34527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1046" s="2" t="s">
         <v>1218</v>
       </c>
@@ -34562,7 +34556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1047" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1047" s="2" t="s">
         <v>1219</v>
       </c>
@@ -34620,7 +34614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1049" s="2" t="s">
         <v>1221</v>
       </c>
@@ -34649,7 +34643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1050" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1050" s="2" t="s">
         <v>1222</v>
       </c>
@@ -34678,7 +34672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1051" s="2" t="s">
         <v>1223</v>
       </c>
@@ -34707,7 +34701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1052" s="2" t="s">
         <v>1224</v>
       </c>
@@ -34736,7 +34730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1053" s="2" t="s">
         <v>1225</v>
       </c>
@@ -34765,7 +34759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1054" s="2" t="s">
         <v>1226</v>
       </c>
@@ -34794,7 +34788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1055" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1055" s="2" t="s">
         <v>1227</v>
       </c>
@@ -34823,7 +34817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1056" s="2" t="s">
         <v>1228</v>
       </c>
@@ -34852,7 +34846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1057" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1057" s="2" t="s">
         <v>1229</v>
       </c>
@@ -34882,7 +34876,7 @@
       </c>
       <c r="K1057" s="2"/>
     </row>
-    <row r="1058" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H1058" s="2"/>
       <c r="I1058" s="2"/>
       <c r="K1058" s="2"/>
